--- a/jeus-blog-infrastructure.xlsx
+++ b/jeus-blog-infrastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Server structure" sheetId="1" r:id="rId1"/>
@@ -1817,7 +1817,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>27708</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1238416" cy="264560"/>
+    <xdr:ext cx="1081963" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="TextBox 29"/>
@@ -1825,8 +1825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8319248" y="3352799"/>
-          <a:ext cx="1238416" cy="264560"/>
+          <a:off x="6241066" y="3519053"/>
+          <a:ext cx="1081963" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1855,7 +1855,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Docker Repository</a:t>
+            <a:t>Docker Registry</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2903,15 +2903,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>19479</xdr:colOff>
+      <xdr:colOff>19478</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>126014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>71548</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>131866</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>118677</xdr:rowOff>
+      <xdr:rowOff>118679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2923,8 +2923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7115000" y="3449111"/>
-          <a:ext cx="1655209" cy="1991705"/>
+          <a:off x="4997704" y="3654479"/>
+          <a:ext cx="1655210" cy="1913479"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2956,15 +2956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>19479</xdr:colOff>
+      <xdr:colOff>19478</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>126014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>71548</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>131866</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>163500</xdr:rowOff>
+      <xdr:rowOff>163502</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2976,8 +2976,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6344443" y="4219668"/>
-          <a:ext cx="3196323" cy="1991705"/>
+          <a:off x="4227147" y="4425036"/>
+          <a:ext cx="3196324" cy="1913479"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3009,15 +3009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>19480</xdr:colOff>
+      <xdr:colOff>19478</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>126013</xdr:rowOff>
+      <xdr:rowOff>126014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>71548</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>131866</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>6209</xdr:rowOff>
+      <xdr:rowOff>6212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3029,8 +3029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5508688" y="5055423"/>
-          <a:ext cx="4867833" cy="1991704"/>
+          <a:off x="3391392" y="5260791"/>
+          <a:ext cx="4867834" cy="1913479"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4238,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="CI9" sqref="CI9"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="CH11" sqref="CH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4255,8 +4255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="DS27" sqref="DS27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="CT30" sqref="CT30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
